--- a/src/Excel/entregable1/RetiroEfectivoExtranjero.xlsx
+++ b/src/Excel/entregable1/RetiroEfectivoExtranjero.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A741C95-8E7B-4730-9F15-656431B138CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6663FFC-2154-48B5-B09A-77EE503F2C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RetiroEfectivoExtranjero" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>monto</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -60,54 +57,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5 mar. 2023, 20:29:54</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:17:45</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 21:50:05</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 21:52:38</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:02:05</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:03:35</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:04:41</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:06:19</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:07:31</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:10:33</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:14:47</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:16:59</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:20:08</t>
-  </si>
-  <si>
-    <t>8 mar. 2023, 22:21:38</t>
-  </si>
-  <si>
     <t>TT230670DVG3 22:2</t>
   </si>
   <si>
@@ -115,13 +64,15 @@
   </si>
   <si>
     <t>8 mar. 2023, 22:23:05</t>
+  </si>
+  <si>
+    <t>ebenito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,16 +402,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -477,36 +428,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/RetiroEfectivoExtranjero.xlsx
+++ b/src/Excel/entregable1/RetiroEfectivoExtranjero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -67,12 +67,19 @@
   </si>
   <si>
     <t>ebenito</t>
+  </si>
+  <si>
+    <t>TT23216P2S96 15:3</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 15:35:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,11 +414,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -454,10 +461,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
